--- a/Sample dataset.xlsx
+++ b/Sample dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="169">
   <si>
     <t>Company</t>
   </si>
@@ -117,24 +117,12 @@
     <t>Maxilia B.V.</t>
   </si>
   <si>
-    <t>RVMT27654</t>
-  </si>
-  <si>
     <t>Oud Maxtassen.nl</t>
   </si>
   <si>
     <t>Offerte aanvraag Site</t>
   </si>
   <si>
-    <t>Stichting Brein in Beeld</t>
-  </si>
-  <si>
-    <t>janneke.van.wingerden@hotmail.com</t>
-  </si>
-  <si>
-    <t>840.0</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
@@ -145,15 +133,6 @@
   </si>
   <si>
     <t>Gefactureerd</t>
-  </si>
-  <si>
-    <t>108GL02</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>880.00</t>
   </si>
   <si>
     <t>Atemi</t>
@@ -918,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1029,19 +1008,19 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>27654</v>
+        <v>32291</v>
       </c>
       <c r="C2">
-        <v>42282</v>
+        <v>47821</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1">
         <v>40544</v>
@@ -1050,58 +1029,58 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>40289</v>
+        <v>40388</v>
       </c>
       <c r="J2" s="2">
-        <v>0.43707175925925923</v>
+        <v>0.44973379629629634</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="U2">
+        <v>72420632</v>
+      </c>
+      <c r="V2">
+        <v>500</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s">
         <v>41</v>
-      </c>
-      <c r="U2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2">
-        <v>1000</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -1109,19 +1088,19 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>32291</v>
+        <v>32292</v>
       </c>
       <c r="C3">
-        <v>47821</v>
+        <v>66836</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1">
         <v>40544</v>
@@ -1130,58 +1109,55 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>40388</v>
+        <v>40450</v>
       </c>
       <c r="J3" s="2">
         <v>0.44973379629629634</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
         <v>53</v>
-      </c>
-      <c r="P3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3">
-        <v>72420632</v>
       </c>
       <c r="V3">
         <v>500</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AC3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1189,19 +1165,19 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>32291</v>
+        <v>38145</v>
       </c>
       <c r="C4">
-        <v>66836</v>
+        <v>57145</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1">
         <v>40544</v>
@@ -1210,55 +1186,58 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>40388</v>
+        <v>40450</v>
       </c>
       <c r="J4" s="2">
-        <v>0.44973379629629634</v>
+        <v>0.4491087962962963</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V4">
-        <v>500</v>
-      </c>
-      <c r="W4" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="W4" s="3">
+        <v>3180</v>
       </c>
       <c r="X4" t="s">
         <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>63</v>
       </c>
       <c r="AA4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="AB4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AC4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1266,19 +1245,19 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>38145</v>
+        <v>39348</v>
       </c>
       <c r="C5">
-        <v>57145</v>
+        <v>59183</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1">
         <v>40544</v>
@@ -1287,58 +1266,58 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>40450</v>
+        <v>40466</v>
       </c>
       <c r="J5" s="2">
-        <v>0.4491087962962963</v>
+        <v>0.61840277777777775</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5">
+        <v>158096</v>
+      </c>
+      <c r="V5">
+        <v>500</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="AC5" t="s">
         <v>41</v>
-      </c>
-      <c r="U5" t="s">
-        <v>68</v>
-      </c>
-      <c r="V5">
-        <v>50</v>
-      </c>
-      <c r="W5" s="3">
-        <v>3180</v>
-      </c>
-      <c r="X5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1346,19 +1325,19 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>39348</v>
+        <v>39714</v>
       </c>
       <c r="C6">
-        <v>59183</v>
+        <v>59841</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1">
         <v>40544</v>
@@ -1367,58 +1346,55 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>40466</v>
+        <v>40478</v>
       </c>
       <c r="J6" s="2">
-        <v>0.61840277777777775</v>
+        <v>0.47105324074074079</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U6">
-        <v>158096</v>
+        <v>9231315</v>
       </c>
       <c r="V6">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="W6" s="3">
-        <v>1100</v>
+        <v>42560</v>
       </c>
       <c r="X6" t="s">
         <v>79</v>
       </c>
       <c r="Y6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="s">
         <v>80</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>81</v>
       </c>
-      <c r="AB6" t="s">
-        <v>74</v>
-      </c>
       <c r="AC6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1426,19 +1402,19 @@
         <v>31</v>
       </c>
       <c r="B7">
-        <v>39714</v>
+        <v>39715</v>
       </c>
       <c r="C7">
-        <v>59841</v>
+        <v>59846</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1">
         <v>40544</v>
@@ -1447,55 +1423,55 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>40478</v>
+        <v>40843</v>
       </c>
       <c r="J7" s="2">
         <v>0.47105324074074079</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U7">
-        <v>9231315</v>
+        <v>9231316</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W7" s="3">
         <v>42560</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1506,16 +1482,16 @@
         <v>39714</v>
       </c>
       <c r="C8">
-        <v>59846</v>
+        <v>59847</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1">
         <v>40544</v>
@@ -1530,49 +1506,49 @@
         <v>0.47105324074074079</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U8">
-        <v>9231316</v>
+        <v>9231315</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W8" s="3">
         <v>42560</v>
       </c>
       <c r="X8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Y8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1580,19 +1556,19 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>39714</v>
+        <v>37999</v>
       </c>
       <c r="C9">
-        <v>59847</v>
+        <v>56727</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>40544</v>
@@ -1601,55 +1577,58 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>40478</v>
+        <v>40480</v>
       </c>
       <c r="J9" s="2">
-        <v>0.47105324074074079</v>
+        <v>0.48084490740740743</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9">
+        <v>92119266</v>
+      </c>
+      <c r="V9">
+        <v>400</v>
+      </c>
+      <c r="W9" s="3">
+        <v>2430</v>
+      </c>
+      <c r="X9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB9" t="s">
         <v>85</v>
       </c>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="AC9" t="s">
         <v>41</v>
-      </c>
-      <c r="U9">
-        <v>9231315</v>
-      </c>
-      <c r="V9">
-        <v>8</v>
-      </c>
-      <c r="W9" s="3">
-        <v>42560</v>
-      </c>
-      <c r="X9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1657,10 +1636,10 @@
         <v>31</v>
       </c>
       <c r="B10">
-        <v>37999</v>
+        <v>39895</v>
       </c>
       <c r="C10">
-        <v>56727</v>
+        <v>60305</v>
       </c>
       <c r="D10" t="s">
         <v>91</v>
@@ -1669,7 +1648,7 @@
         <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1">
         <v>40544</v>
@@ -1678,10 +1657,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>40480</v>
+        <v>40485</v>
       </c>
       <c r="J10" s="2">
-        <v>0.48084490740740743</v>
+        <v>0.49157407407407411</v>
+      </c>
+      <c r="K10">
+        <v>168278</v>
       </c>
       <c r="L10" t="s">
         <v>93</v>
@@ -1693,43 +1675,43 @@
         <v>95</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10">
-        <v>92119266</v>
+        <v>37</v>
+      </c>
+      <c r="U10" t="s">
+        <v>96</v>
       </c>
       <c r="V10">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="W10" s="3">
-        <v>2430</v>
+        <v>17460</v>
       </c>
       <c r="X10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AA10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s">
         <v>92</v>
       </c>
       <c r="AC10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1737,19 +1719,19 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>39895</v>
+        <v>39896</v>
       </c>
       <c r="C11">
-        <v>60305</v>
+        <v>60308</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1">
         <v>40544</v>
@@ -1758,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>40485</v>
+        <v>40819</v>
       </c>
       <c r="J11" s="2">
         <v>0.49157407407407411</v>
@@ -1767,52 +1749,52 @@
         <v>168278</v>
       </c>
       <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>24090</v>
+      </c>
+      <c r="X11" t="s">
         <v>100</v>
       </c>
-      <c r="O11" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="Y11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC11" t="s">
         <v>41</v>
-      </c>
-      <c r="U11" t="s">
-        <v>103</v>
-      </c>
-      <c r="V11">
-        <v>3</v>
-      </c>
-      <c r="W11" s="3">
-        <v>17460</v>
-      </c>
-      <c r="X11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1823,16 +1805,16 @@
         <v>39895</v>
       </c>
       <c r="C12">
-        <v>60308</v>
+        <v>60310</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1">
         <v>40544</v>
@@ -1850,52 +1832,52 @@
         <v>168278</v>
       </c>
       <c r="L12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s">
         <v>101</v>
-      </c>
-      <c r="P12" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" t="s">
-        <v>106</v>
       </c>
       <c r="V12">
         <v>1</v>
       </c>
       <c r="W12" s="3">
-        <v>24090</v>
+        <v>22670</v>
       </c>
       <c r="X12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="Y12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AA12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AC12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1906,16 +1888,16 @@
         <v>39895</v>
       </c>
       <c r="C13">
-        <v>60310</v>
+        <v>60311</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1">
         <v>40544</v>
@@ -1933,52 +1915,52 @@
         <v>168278</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Q13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="V13">
         <v>1</v>
       </c>
       <c r="W13" s="3">
-        <v>22670</v>
+        <v>21910</v>
       </c>
       <c r="X13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AA13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AC13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1989,16 +1971,16 @@
         <v>39895</v>
       </c>
       <c r="C14">
-        <v>60311</v>
+        <v>60731</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="1">
         <v>40544</v>
@@ -2016,52 +1998,52 @@
         <v>168278</v>
       </c>
       <c r="L14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Q14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14">
+        <v>620000</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
+        <v>9490</v>
+      </c>
+      <c r="X14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC14" t="s">
         <v>41</v>
-      </c>
-      <c r="U14" t="s">
-        <v>110</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14" s="3">
-        <v>21910</v>
-      </c>
-      <c r="X14" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -2069,19 +2051,19 @@
         <v>31</v>
       </c>
       <c r="B15">
-        <v>39895</v>
+        <v>39899</v>
       </c>
       <c r="C15">
-        <v>60731</v>
+        <v>60733</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1">
         <v>40544</v>
@@ -2090,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>40485</v>
+        <v>41185</v>
       </c>
       <c r="J15" s="2">
         <v>0.49157407407407411</v>
@@ -2099,25 +2081,25 @@
         <v>168278</v>
       </c>
       <c r="L15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Q15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U15">
         <v>620000</v>
@@ -2126,25 +2108,25 @@
         <v>10</v>
       </c>
       <c r="W15" s="3">
-        <v>9490</v>
+        <v>8610</v>
       </c>
       <c r="X15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Y15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AA15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AC15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -2155,16 +2137,16 @@
         <v>39895</v>
       </c>
       <c r="C16">
-        <v>60733</v>
+        <v>61090</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1">
         <v>40544</v>
@@ -2182,52 +2164,52 @@
         <v>168278</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Q16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" t="s">
+        <v>108</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>10770</v>
+      </c>
+      <c r="X16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC16" t="s">
         <v>41</v>
-      </c>
-      <c r="U16">
-        <v>620000</v>
-      </c>
-      <c r="V16">
-        <v>10</v>
-      </c>
-      <c r="W16" s="3">
-        <v>8610</v>
-      </c>
-      <c r="X16" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2238,16 +2220,16 @@
         <v>39895</v>
       </c>
       <c r="C17">
-        <v>61090</v>
+        <v>61091</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="1">
         <v>40544</v>
@@ -2265,52 +2247,52 @@
         <v>168278</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Q17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T17" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" t="s">
+        <v>110</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3">
+        <v>9120</v>
+      </c>
+      <c r="X17" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC17" t="s">
         <v>41</v>
-      </c>
-      <c r="U17" t="s">
-        <v>115</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17" s="3">
-        <v>10770</v>
-      </c>
-      <c r="X17" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2321,16 +2303,16 @@
         <v>39895</v>
       </c>
       <c r="C18">
-        <v>61091</v>
+        <v>62707</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="1">
         <v>40544</v>
@@ -2348,52 +2330,52 @@
         <v>168278</v>
       </c>
       <c r="L18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Q18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18">
+        <v>12</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
+        <v>15000</v>
+      </c>
+      <c r="X18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC18" t="s">
         <v>41</v>
-      </c>
-      <c r="U18" t="s">
-        <v>117</v>
-      </c>
-      <c r="V18">
-        <v>3</v>
-      </c>
-      <c r="W18" s="3">
-        <v>9120</v>
-      </c>
-      <c r="X18" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2401,19 +2383,19 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>39895</v>
+        <v>39576</v>
       </c>
       <c r="C19">
-        <v>62707</v>
+        <v>60358</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1">
         <v>40544</v>
@@ -2422,61 +2404,55 @@
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>40485</v>
+        <v>40491</v>
       </c>
       <c r="J19" s="2">
-        <v>0.49157407407407411</v>
-      </c>
-      <c r="K19">
-        <v>168278</v>
+        <v>0.4533564814814815</v>
       </c>
       <c r="L19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="Q19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R19" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="S19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T19" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19">
+        <v>92111047</v>
+      </c>
+      <c r="V19">
+        <v>140</v>
+      </c>
+      <c r="W19" s="3">
+        <v>3210</v>
+      </c>
+      <c r="X19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC19" t="s">
         <v>41</v>
-      </c>
-      <c r="U19">
-        <v>12</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19" s="3">
-        <v>15000</v>
-      </c>
-      <c r="X19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2484,19 +2460,19 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>39576</v>
+        <v>39776</v>
       </c>
       <c r="C20">
-        <v>60358</v>
+        <v>60048</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1">
         <v>40544</v>
@@ -2505,55 +2481,58 @@
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>40491</v>
+        <v>40492</v>
       </c>
       <c r="J20" s="2">
-        <v>0.4533564814814815</v>
+        <v>0.40122685185185186</v>
       </c>
       <c r="L20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" t="s">
         <v>122</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20">
+        <v>72201000</v>
+      </c>
+      <c r="V20">
+        <v>2500</v>
+      </c>
+      <c r="W20" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" t="s">
-        <v>55</v>
-      </c>
-      <c r="S20" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U20">
-        <v>92111047</v>
-      </c>
-      <c r="V20">
-        <v>140</v>
-      </c>
-      <c r="W20" s="3">
-        <v>3210</v>
       </c>
       <c r="X20" t="s">
         <v>124</v>
       </c>
       <c r="Y20" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>51</v>
       </c>
       <c r="AA20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AC20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2561,19 +2540,19 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>39776</v>
+        <v>39778</v>
       </c>
       <c r="C21">
-        <v>60048</v>
+        <v>67456</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
         <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
       </c>
       <c r="G21" s="1">
         <v>40544</v>
@@ -2582,58 +2561,58 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>40492</v>
+        <v>40857</v>
       </c>
       <c r="J21" s="2">
         <v>0.40122685185185186</v>
       </c>
       <c r="L21" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O21" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Q21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S21" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21">
+        <v>12</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21" s="3">
+        <v>25000</v>
+      </c>
+      <c r="X21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s">
         <v>40</v>
       </c>
-      <c r="T21" t="s">
+      <c r="AC21" t="s">
         <v>41</v>
-      </c>
-      <c r="U21">
-        <v>72201000</v>
-      </c>
-      <c r="V21">
-        <v>2500</v>
-      </c>
-      <c r="W21" t="s">
-        <v>130</v>
-      </c>
-      <c r="X21" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2641,19 +2620,19 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>39776</v>
+        <v>39873</v>
       </c>
       <c r="C22">
-        <v>67456</v>
+        <v>60287</v>
       </c>
       <c r="D22" t="s">
         <v>126</v>
       </c>
       <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
         <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
       </c>
       <c r="G22" s="1">
         <v>40544</v>
@@ -2665,55 +2644,55 @@
         <v>40492</v>
       </c>
       <c r="J22" s="2">
-        <v>0.40122685185185186</v>
+        <v>0.66744212962962957</v>
       </c>
       <c r="L22" t="s">
+        <v>128</v>
+      </c>
+      <c r="O22" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22">
+        <v>92119411</v>
+      </c>
+      <c r="V22">
+        <v>500</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1050</v>
+      </c>
+      <c r="X22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB22" t="s">
         <v>127</v>
       </c>
-      <c r="O22" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22" t="s">
-        <v>55</v>
-      </c>
-      <c r="S22" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="AC22" t="s">
         <v>41</v>
-      </c>
-      <c r="U22">
-        <v>12</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22" s="3">
-        <v>25000</v>
-      </c>
-      <c r="X22" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2721,10 +2700,10 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>39873</v>
+        <v>40451</v>
       </c>
       <c r="C23">
-        <v>60287</v>
+        <v>61252</v>
       </c>
       <c r="D23" t="s">
         <v>133</v>
@@ -2733,7 +2712,7 @@
         <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="1">
         <v>40544</v>
@@ -2745,7 +2724,7 @@
         <v>40492</v>
       </c>
       <c r="J23" s="2">
-        <v>0.66744212962962957</v>
+        <v>0.59556712962962965</v>
       </c>
       <c r="L23" t="s">
         <v>135</v>
@@ -2754,46 +2733,43 @@
         <v>136</v>
       </c>
       <c r="P23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s">
         <v>137</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R23" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" t="s">
-        <v>40</v>
-      </c>
-      <c r="T23" t="s">
-        <v>41</v>
-      </c>
-      <c r="U23">
-        <v>92119411</v>
       </c>
       <c r="V23">
         <v>500</v>
       </c>
       <c r="W23" s="3">
-        <v>1050</v>
+        <v>1450</v>
       </c>
       <c r="X23" t="s">
         <v>138</v>
       </c>
       <c r="Y23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="AB23" t="s">
         <v>134</v>
       </c>
       <c r="AC23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2801,19 +2777,19 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>40451</v>
+        <v>40680</v>
       </c>
       <c r="C24">
-        <v>61252</v>
+        <v>61733</v>
       </c>
       <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
         <v>140</v>
       </c>
-      <c r="E24" t="s">
-        <v>141</v>
-      </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1">
         <v>40544</v>
@@ -2825,52 +2801,55 @@
         <v>40492</v>
       </c>
       <c r="J24" s="2">
-        <v>0.59556712962962965</v>
+        <v>0.66143518518518518</v>
       </c>
       <c r="L24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" t="s">
         <v>142</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>143</v>
       </c>
-      <c r="P24" t="s">
-        <v>38</v>
-      </c>
       <c r="Q24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U24" t="s">
         <v>144</v>
       </c>
       <c r="V24">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="W24" s="3">
-        <v>1450</v>
+        <v>1880</v>
       </c>
       <c r="X24" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z24" t="s">
         <v>145</v>
       </c>
-      <c r="Y24" t="s">
-        <v>38</v>
-      </c>
       <c r="AA24" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2878,19 +2857,19 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>40680</v>
+        <v>41212</v>
       </c>
       <c r="C25">
-        <v>61733</v>
+        <v>62662</v>
       </c>
       <c r="D25" t="s">
         <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1">
         <v>40544</v>
@@ -2899,58 +2878,58 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>40492</v>
+        <v>40501</v>
       </c>
       <c r="J25" s="2">
-        <v>0.66143518518518518</v>
+        <v>0.41115740740740742</v>
       </c>
       <c r="L25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O25" t="s">
         <v>148</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>149</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" t="s">
         <v>150</v>
       </c>
-      <c r="Q25" t="s">
-        <v>38</v>
-      </c>
-      <c r="R25" t="s">
-        <v>55</v>
-      </c>
-      <c r="S25" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" t="s">
-        <v>41</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="V25">
+        <v>10</v>
+      </c>
+      <c r="W25" s="3">
+        <v>9240</v>
+      </c>
+      <c r="X25" t="s">
         <v>151</v>
       </c>
-      <c r="V25">
-        <v>504</v>
-      </c>
-      <c r="W25" s="3">
-        <v>1880</v>
-      </c>
-      <c r="X25" t="s">
-        <v>150</v>
-      </c>
       <c r="Y25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="s">
         <v>152</v>
       </c>
       <c r="AA25" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="AB25" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="AC25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2958,19 +2937,19 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>41212</v>
+        <v>40699</v>
       </c>
       <c r="C26">
-        <v>62662</v>
+        <v>61767</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="1">
         <v>40544</v>
@@ -2979,78 +2958,78 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>40501</v>
+        <v>40506</v>
       </c>
       <c r="J26" s="2">
-        <v>0.41115740740740742</v>
+        <v>0.51292824074074073</v>
       </c>
       <c r="L26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" t="s">
+        <v>158</v>
+      </c>
+      <c r="V26">
+        <v>500</v>
+      </c>
+      <c r="W26" t="s">
+        <v>159</v>
+      </c>
+      <c r="X26" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z26" t="s">
         <v>38</v>
       </c>
-      <c r="R26" t="s">
-        <v>55</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="AA26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s">
         <v>40</v>
       </c>
-      <c r="T26" t="s">
+      <c r="AC26" t="s">
         <v>41</v>
-      </c>
-      <c r="U26" t="s">
-        <v>157</v>
-      </c>
-      <c r="V26">
-        <v>10</v>
-      </c>
-      <c r="W26" s="3">
-        <v>9240</v>
-      </c>
-      <c r="X26" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="B27">
-        <v>40699</v>
+        <v>42331</v>
       </c>
       <c r="C27">
-        <v>61767</v>
+        <v>64715</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="G27" s="1">
         <v>40544</v>
@@ -3059,138 +3038,58 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>40506</v>
+        <v>40508</v>
       </c>
       <c r="J27" s="2">
-        <v>0.51292824074074073</v>
+        <v>0.36461805555555554</v>
       </c>
       <c r="L27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27" t="s">
+        <v>144</v>
+      </c>
+      <c r="V27">
+        <v>504</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1790</v>
+      </c>
+      <c r="X27" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC27" t="s">
         <v>41</v>
-      </c>
-      <c r="U27" t="s">
-        <v>165</v>
-      </c>
-      <c r="V27">
-        <v>500</v>
-      </c>
-      <c r="W27" t="s">
-        <v>166</v>
-      </c>
-      <c r="X27" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28">
-        <v>42331</v>
-      </c>
-      <c r="C28">
-        <v>64715</v>
-      </c>
-      <c r="D28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" t="s">
-        <v>170</v>
-      </c>
-      <c r="F28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="1">
-        <v>40544</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>40508</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.36461805555555554</v>
-      </c>
-      <c r="L28" t="s">
-        <v>171</v>
-      </c>
-      <c r="O28" t="s">
-        <v>172</v>
-      </c>
-      <c r="P28" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>38</v>
-      </c>
-      <c r="R28" t="s">
-        <v>55</v>
-      </c>
-      <c r="S28" t="s">
-        <v>40</v>
-      </c>
-      <c r="T28" t="s">
-        <v>41</v>
-      </c>
-      <c r="U28" t="s">
-        <v>151</v>
-      </c>
-      <c r="V28">
-        <v>504</v>
-      </c>
-      <c r="W28" s="3">
-        <v>1790</v>
-      </c>
-      <c r="X28" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
